--- a/grupos/4AEM - Estadisticos 20202.xlsx
+++ b/grupos/4AEM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="164">
   <si>
     <t>Materia</t>
   </si>
@@ -206,16 +206,16 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Torres Sánchez José Luis</t>
+  </si>
+  <si>
+    <t>Rivera Cruz Ezequiel</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Torres Sánchez José Luis</t>
   </si>
   <si>
     <t>Jiménez Nieto Enrique</t>
@@ -4545,19 +4545,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>46.15</v>
+        <v>74.36</v>
       </c>
       <c r="G2">
-        <v>53.85</v>
+        <v>25.64</v>
       </c>
       <c r="H2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -4577,19 +4577,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4609,19 +4609,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>82.05</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>17.95</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4641,19 +4641,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>94.87</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>5.13</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>39</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5499,7 +5499,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5529,21 +5529,21 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920422</v>
+        <v>19330051920417</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920422</v>
+        <v>19330051920007</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5580,16 +5580,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920022</v>
+        <v>19330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920022</v>
+        <v>19330051920016</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5626,16 +5626,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920026</v>
+        <v>19330051920010</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920026</v>
+        <v>19330051920422</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5672,16 +5672,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920024</v>
+        <v>19330051920026</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -5690,27 +5690,27 @@
         <v>61</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920024</v>
+        <v>19330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5718,16 +5718,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920039</v>
+        <v>19330051920033</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -5736,214 +5736,30 @@
         <v>61</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920039</v>
+        <v>19330051920036</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920003</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920021</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330061460390</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920029</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920034</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920038</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920040</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
